--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1906114.171106034</v>
+        <v>1898940.882395752</v>
       </c>
     </row>
     <row r="7">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
-        <v>38.19053515138876</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>140.7283949888226</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>95.30943908487227</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>56.09107085204226</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>152.6839592808778</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.61134880865266</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.039630846421</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.039630846421</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280911</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385219</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>21.39010681968558</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129692</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141302</v>
@@ -1034,16 +1034,16 @@
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>24.75376945060128</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322678</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.92875790505612</v>
+        <v>64.00137801481654</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>126.0887386816669</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>160.1743669966221</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>62.22551331319384</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.7660731567846</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.4106056624399</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.58966474227987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>87.26773759075623</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,10 +2298,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>24.30197918502502</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>174.4337949639047</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274218</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.12580423844415</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722599</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274252</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>141.5664440673981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.1474114830847</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>131.9449639646228</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>204.6337009349361</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>99.43636052933105</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.20445519313633</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651531988</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.6405752120386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>238.5193143797259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>179.557514546837</v>
       </c>
       <c r="C2" t="n">
-        <v>1066.049756676706</v>
+        <v>179.557514546837</v>
       </c>
       <c r="D2" t="n">
-        <v>1066.049756676706</v>
+        <v>179.557514546837</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1037832399832</v>
+        <v>179.557514546837</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032604</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
@@ -4333,19 +4333,19 @@
         <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>458.5034879835596</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.7267908976475</v>
+        <v>426.5365464546854</v>
       </c>
       <c r="C3" t="n">
-        <v>134.7267908976475</v>
+        <v>426.5365464546854</v>
       </c>
       <c r="D3" t="n">
-        <v>134.7267908976475</v>
+        <v>277.6021367934341</v>
       </c>
       <c r="E3" t="n">
-        <v>134.7267908976475</v>
+        <v>118.3646817879786</v>
       </c>
       <c r="F3" t="n">
-        <v>134.7267908976475</v>
+        <v>118.3646817879786</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>118.3646817879786</v>
       </c>
       <c r="H3" t="n">
         <v>22.09252109618843</v>
@@ -4418,16 +4418,16 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944839</v>
+        <v>634.3469862468014</v>
       </c>
       <c r="N3" t="n">
-        <v>759.2151904085661</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4442,19 +4442,19 @@
         <v>634.2968452196393</v>
       </c>
       <c r="U3" t="n">
-        <v>577.6391978943441</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="V3" t="n">
-        <v>342.4870896626014</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="W3" t="n">
-        <v>342.4870896626014</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="X3" t="n">
-        <v>342.4870896626014</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="Y3" t="n">
-        <v>134.7267908976475</v>
+        <v>426.5365464546854</v>
       </c>
     </row>
     <row r="4">
@@ -4521,16 +4521,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
         <v>22.09252109618843</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.762647488187</v>
+        <v>1333.93230188985</v>
       </c>
       <c r="C5" t="n">
-        <v>1366.762647488187</v>
+        <v>964.969784949438</v>
       </c>
       <c r="D5" t="n">
-        <v>1008.496948881437</v>
+        <v>606.7040863426874</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090603</v>
+        <v>606.7040863426874</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934835</v>
+        <v>599.758585593484</v>
       </c>
       <c r="G5" t="n">
         <v>223.9609786779067</v>
@@ -4564,55 +4564,55 @@
         <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380366</v>
+        <v>57.6439173538038</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456871</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039962</v>
+        <v>474.0852112039968</v>
       </c>
       <c r="M5" t="n">
-        <v>773.216086049414</v>
+        <v>773.2160860494148</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635719</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293125</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935876</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385684</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488187</v>
+        <v>1488.158523385686</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.7507577219557</v>
+        <v>225.8223682535736</v>
       </c>
       <c r="C6" t="n">
-        <v>176.2977284408287</v>
+        <v>51.36933897244663</v>
       </c>
       <c r="D6" t="n">
-        <v>176.2977284408287</v>
+        <v>51.36933897244663</v>
       </c>
       <c r="E6" t="n">
-        <v>176.2977284408287</v>
+        <v>51.36933897244663</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760262</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="L6" t="n">
-        <v>479.862625622162</v>
+        <v>314.0811796138497</v>
       </c>
       <c r="M6" t="n">
-        <v>848.1818601601187</v>
+        <v>682.4004141518069</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693958</v>
+        <v>848.0470181903938</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241714</v>
+        <v>1156.361899562713</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385684</v>
+        <v>1386.808705706682</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385684</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707606</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107475</v>
+        <v>1319.485484785554</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107475</v>
+        <v>1319.485484785554</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.967557761039</v>
+        <v>1091.278670439119</v>
       </c>
       <c r="V6" t="n">
-        <v>1005.967557761039</v>
+        <v>856.1265622073761</v>
       </c>
       <c r="W6" t="n">
-        <v>751.7302010328376</v>
+        <v>601.8892054791745</v>
       </c>
       <c r="X6" t="n">
-        <v>726.7263935069777</v>
+        <v>394.0377052736417</v>
       </c>
       <c r="Y6" t="n">
-        <v>518.9660947420238</v>
+        <v>394.0377052736417</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.6993533956206</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888129</v>
+        <v>32.0999017588814</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611215</v>
+        <v>90.61654790611234</v>
       </c>
       <c r="M7" t="n">
-        <v>162.703269723668</v>
+        <v>162.7032697236683</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840001</v>
+        <v>238.5105468400014</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057933</v>
+        <v>292.5145415057938</v>
       </c>
       <c r="P7" t="n">
-        <v>315.203606191866</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Q7" t="n">
-        <v>246.1021391583035</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="R7" t="n">
-        <v>246.1021391583035</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="S7" t="n">
-        <v>246.1021391583035</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="T7" t="n">
-        <v>246.1021391583035</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="U7" t="n">
-        <v>246.1021391583035</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="V7" t="n">
-        <v>198.6993533956206</v>
+        <v>250.5557496112438</v>
       </c>
       <c r="W7" t="n">
-        <v>198.6993533956206</v>
+        <v>250.5557496112438</v>
       </c>
       <c r="X7" t="n">
-        <v>198.6993533956206</v>
+        <v>250.5557496112438</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.6993533956206</v>
+        <v>29.76317046771372</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>261.391796148808</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>261.391796148808</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>261.391796148808</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.007103038344</v>
+        <v>773.1661474848155</v>
       </c>
       <c r="C13" t="n">
-        <v>675.007103038344</v>
+        <v>773.1661474848155</v>
       </c>
       <c r="D13" t="n">
-        <v>675.007103038344</v>
+        <v>623.0495080724797</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>475.1364144900866</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>328.2464669921762</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>160.0711453119968</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.007103038344</v>
+        <v>954.8146123150552</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1362.788923934888</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>1362.788923934888</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.3109288932102</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3747459653033</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1368.198487060489</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1368.198487060489</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X19" t="n">
-        <v>1244.231782352015</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.95939372345</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5834,22 +5834,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>447.0175521403269</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>447.0175521403269</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>296.9009127279911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>296.9009127279911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>296.9009127279911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>296.9009127279911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>447.0175521403269</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.0175521403269</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.9398668627127</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C25" t="n">
-        <v>289.9398668627127</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929525</v>
+        <v>678.2225136306376</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805483</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822476</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,19 +6305,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
         <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
         <v>2016.139981183168</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633442</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,43 +6445,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155906</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805487</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382248</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3756.895681291723</v>
+        <v>537.2200865194189</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.895681291723</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.779041879387</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4749.779469576118</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4495.094981370231</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>4205.67781133327</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X31" t="n">
-        <v>3977.688260435253</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y31" t="n">
-        <v>3756.895681291723</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.8027887886599</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C34" t="n">
-        <v>527.8027887886599</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D34" t="n">
-        <v>527.8027887886599</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.8027887886599</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>380.9128412907495</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799439</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471267</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974674</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980071</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585754</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.91627055791</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188996</v>
+        <v>1387.841167119735</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188996</v>
+        <v>1181.140459104648</v>
       </c>
       <c r="X34" t="n">
-        <v>709.4512536188996</v>
+        <v>953.1509082066311</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.4512536188996</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514064</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3941.006808105546</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C37" t="n">
-        <v>3941.006808105546</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="D37" t="n">
-        <v>3941.006808105546</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>3941.006808105546</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3794.116860607635</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G37" t="n">
-        <v>3625.941538927456</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H37" t="n">
-        <v>3475.523530475399</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014293</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014293</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977333</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X37" t="n">
-        <v>4343.447852079315</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y37" t="n">
-        <v>4122.655272935785</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,31 +7189,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,31 +7241,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
         <v>2123.441607278215</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473448</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262954</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765121</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706252</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3443.999848753676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,16 +7633,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7654,13 +7654,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>714.1745431820127</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>486.1849922839954</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>354.0566759388317</v>
       </c>
       <c r="N3" t="n">
-        <v>192.7321743846782</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948386</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357593</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835728</v>
+        <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>167.8129993019143</v>
+        <v>232.8954521598028</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247344</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498455</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711629</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>176.717654749845</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298017</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776732</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>86.68831505434228</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985722</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.3715701670434</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>92.13695539594931</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.9949886098149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>61.6460907767799</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3134938331873</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633701</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>112.0892033726863</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.4588491136506</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>25.68037703122974</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2865511634844324</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.54860449874985</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>81.88929740165489</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>49.1791124888813</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>94.21479027113564</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318339219</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.94407814005615</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>48.00368395686513</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>883486.1062286641</v>
+        <v>883486.1062286642</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>883486.1062286641</v>
+        <v>883486.1062286643</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>883486.1062286641</v>
+        <v>883486.1062286638</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583919</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459071</v>
@@ -26331,31 +26331,31 @@
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459068</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703826</v>
+        <v>106137.1517703831</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252121</v>
+        <v>316711.9424252117</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113909</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313388</v>
+        <v>24677.24609313399</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817196</v>
+        <v>76496.15793817159</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484435</v>
+        <v>286886.6599484434</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26438,28 +26438,28 @@
         <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
+        <v>43561.42148316566</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43561.42148316565</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43561.42148316566</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43561.42148316566</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43561.42148316561</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43561.42148316553</v>
+      </c>
+      <c r="O4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="J4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43561.42148316551</v>
-      </c>
       <c r="P4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
     </row>
     <row r="5">
@@ -26472,40 +26472,40 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485706</v>
+        <v>58810.42201485709</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59801.50525788544</v>
+        <v>59801.50525788555</v>
       </c>
       <c r="C6" t="n">
         <v>102368.9609247083</v>
       </c>
       <c r="D6" t="n">
-        <v>-37574.42222266001</v>
+        <v>-37574.42222265966</v>
       </c>
       <c r="E6" t="n">
-        <v>-132819.5532628715</v>
+        <v>-133794.144522593</v>
       </c>
       <c r="F6" t="n">
-        <v>392340.4832140249</v>
+        <v>391365.8919543032</v>
       </c>
       <c r="G6" t="n">
-        <v>392340.4832140248</v>
+        <v>391365.8919543033</v>
       </c>
       <c r="H6" t="n">
-        <v>392340.4832140249</v>
+        <v>391365.8919543034</v>
       </c>
       <c r="I6" t="n">
-        <v>392340.4832140249</v>
+        <v>391365.891954303</v>
       </c>
       <c r="J6" t="n">
-        <v>320085.7883428859</v>
+        <v>319111.1970831642</v>
       </c>
       <c r="K6" t="n">
-        <v>367663.237120891</v>
+        <v>366688.6458611694</v>
       </c>
       <c r="L6" t="n">
-        <v>315844.3252758529</v>
+        <v>314869.7340161315</v>
       </c>
       <c r="M6" t="n">
-        <v>257539.4679801879</v>
+        <v>256564.8767204662</v>
       </c>
       <c r="N6" t="n">
-        <v>392340.4832140247</v>
+        <v>391365.891954303</v>
       </c>
       <c r="O6" t="n">
-        <v>392340.4832140246</v>
+        <v>391365.8919543029</v>
       </c>
       <c r="P6" t="n">
-        <v>392340.4832140249</v>
+        <v>391365.8919543031</v>
       </c>
     </row>
   </sheetData>
@@ -26706,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593881</v>
+        <v>117.5602045593885</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,16 +26792,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846421</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026279</v>
+        <v>82.53894384026316</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576986</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406561</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081346</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406561</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081351</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406561</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081346</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
-        <v>327.0823566196188</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>266.1476507528889</v>
       </c>
       <c r="G2" t="n">
-        <v>139.0054348249641</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>16.19848801857218</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>169.8453553901516</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27593,7 +27593,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.45345940421694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>230.0498823826028</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.3190212636091</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489529043</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128937</v>
+        <v>42.79050283128891</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657417</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.6791055736983</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281888</v>
+        <v>80.69052336281885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129687</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>181.0192157528762</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358488</v>
+        <v>78.37121764358484</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322672</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27827,13 +27827,13 @@
         <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>205.2088854187719</v>
+        <v>188.1362653090115</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>126.0489046421611</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.53528839241505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -29210,7 +29210,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.558558339858228e-12</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,22 +29325,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29511,19 +29511,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.880360694736612e-12</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-7.895555166631037e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29921,7 +29921,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-6.598573539425463e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246754</v>
+        <v>0.4726038374246768</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025458</v>
+        <v>4.840054050025473</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231481</v>
+        <v>18.22005944231487</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662257</v>
+        <v>40.1116599466227</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848091</v>
+        <v>60.11698038480928</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439451</v>
+        <v>74.58043007439476</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819558</v>
+        <v>82.98509856819585</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127845</v>
+        <v>84.32788422127872</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288684</v>
+        <v>79.62842981288708</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646515</v>
+        <v>67.96102257646537</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869395</v>
+        <v>51.0358976486941</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262779</v>
+        <v>29.68720080262788</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453148</v>
+        <v>10.76945994531483</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326517</v>
+        <v>2.068823298326524</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397402</v>
+        <v>0.03780830699397414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560423</v>
+        <v>0.2528653456560431</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941251</v>
+        <v>2.442146890941259</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596194</v>
+        <v>8.706109488596221</v>
       </c>
       <c r="J6" t="n">
-        <v>23.8902298718281</v>
+        <v>23.89022987182818</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078294</v>
+        <v>40.83220803078306</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483498</v>
+        <v>54.90394270483515</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486649</v>
+        <v>64.07031148486669</v>
       </c>
       <c r="N6" t="n">
-        <v>65.766061982709</v>
+        <v>65.7660619827092</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106722</v>
+        <v>60.16309827106741</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496829</v>
+        <v>48.28619043496845</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128709</v>
+        <v>32.27803956128719</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134621</v>
+        <v>15.69983260134626</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707624</v>
+        <v>4.696862889707639</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359223</v>
+        <v>1.019224792359226</v>
       </c>
       <c r="U6" t="n">
-        <v>0.016635878003687</v>
+        <v>0.01663587800368705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005359</v>
+        <v>0.2119938115005365</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886584</v>
+        <v>1.88481770588659</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761572</v>
+        <v>6.375232076761591</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308788</v>
+        <v>14.98796247308793</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342589</v>
+        <v>24.62982646342597</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072513</v>
+        <v>31.51769812072523</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094308</v>
+        <v>33.23099356094319</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898657</v>
+        <v>32.44083480898667</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736666</v>
+        <v>29.96436164736676</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275571</v>
+        <v>25.63968789275579</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.7515908884676</v>
+        <v>17.75159088846766</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651364</v>
+        <v>9.532012651651394</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513883</v>
+        <v>3.694473969513894</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477439</v>
+        <v>0.9057917400477468</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912015</v>
+        <v>0.01156329880912019</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
+        <v>231.0092291087367</v>
+      </c>
+      <c r="N3" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="N3" t="n">
-        <v>80.98221455967899</v>
-      </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201006</v>
+        <v>28.16237059201018</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109933</v>
+        <v>164.1725419109935</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548577</v>
+        <v>256.475229654858</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337553</v>
+        <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366717</v>
+        <v>292.261745036672</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539454</v>
+        <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926783</v>
+        <v>158.5267349926785</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414914</v>
+        <v>41.0451984341493</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690025</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.18990822842</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.039630846421</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="N6" t="n">
-        <v>102.2373492012899</v>
+        <v>167.3198020591787</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033523</v>
+        <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605752</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111148</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543037</v>
+        <v>2.360334637543115</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104127</v>
+        <v>59.10772338104137</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278368</v>
+        <v>72.81487052278378</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821517</v>
+        <v>76.57300718821526</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140633</v>
+        <v>54.54948956140643</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9182471576492</v>
+        <v>22.91824715764928</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>383.8211928074494</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>492.2066737115375</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36202,10 +36202,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36214,13 +36214,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058698</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799361</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303311</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997186817</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
